--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>HTS tape results</t>
   </si>
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">248F-3 </t>
+    <t xml:space="preserve">248F-19 </t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20201210081</v>
+        <v>20201027006</v>
       </c>
       <c r="C4">
-        <v>84.07447452698564</v>
+        <v>816.3610747358747</v>
       </c>
       <c r="D4">
-        <v>9.813027077086355</v>
+        <v>419.508702076143</v>
       </c>
       <c r="E4">
-        <v>99.99993900547817</v>
+        <v>2.533678884040108</v>
       </c>
       <c r="F4">
-        <v>258.259466654497</v>
+        <v>0.7066148770379989</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,39 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20201210082</v>
+        <v>20201027007</v>
       </c>
       <c r="C5">
-        <v>163.5593349047247</v>
+        <v>171.8897684182772</v>
       </c>
       <c r="D5">
-        <v>68578131.47096683</v>
+        <v>0.06674757216893125</v>
       </c>
       <c r="E5">
-        <v>44.62538704526659</v>
+        <v>40.37504816535063</v>
       </c>
       <c r="F5">
-        <v>30882505.64780365</v>
+        <v>0.6831684792094123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>20201027008</v>
+      </c>
+      <c r="C6">
+        <v>172.8382378878981</v>
+      </c>
+      <c r="D6">
+        <v>0.01968585366899952</v>
+      </c>
+      <c r="E6">
+        <v>31.56235731912708</v>
+      </c>
+      <c r="F6">
+        <v>0.1959617602588581</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>HTS tape results</t>
   </si>
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">248F-19 </t>
+    <t xml:space="preserve">SOX 717-C 1 </t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20201027006</v>
+        <v>20201209059</v>
       </c>
       <c r="C4">
-        <v>816.3610747358747</v>
+        <v>159.6991324768351</v>
       </c>
       <c r="D4">
-        <v>419.508702076143</v>
+        <v>0.1049552903810511</v>
       </c>
       <c r="E4">
-        <v>2.533678884040108</v>
+        <v>46.20157618021523</v>
       </c>
       <c r="F4">
-        <v>0.7066148770379989</v>
+        <v>1.462899470367886</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20201027007</v>
+        <v>20201209060</v>
       </c>
       <c r="C5">
-        <v>171.8897684182772</v>
+        <v>159.6154088578845</v>
       </c>
       <c r="D5">
-        <v>0.06674757216893125</v>
+        <v>0.08121870658997199</v>
       </c>
       <c r="E5">
-        <v>40.37504816535063</v>
+        <v>37.48976383711215</v>
       </c>
       <c r="F5">
-        <v>0.6831684792094123</v>
+        <v>0.8996805363756503</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,79 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20201027008</v>
+        <v>20201209061</v>
       </c>
       <c r="C6">
-        <v>172.8382378878981</v>
+        <v>158.960571292258</v>
       </c>
       <c r="D6">
-        <v>0.01968585366899952</v>
+        <v>0.1339382949238062</v>
       </c>
       <c r="E6">
-        <v>31.56235731912708</v>
+        <v>42.1683928693664</v>
       </c>
       <c r="F6">
-        <v>0.1959617602588581</v>
+        <v>1.489555878658869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>20201209062</v>
+      </c>
+      <c r="C7">
+        <v>160.0310128606721</v>
+      </c>
+      <c r="D7">
+        <v>0.1143225937587857</v>
+      </c>
+      <c r="E7">
+        <v>32.34361313266743</v>
+      </c>
+      <c r="F7">
+        <v>0.802813239473873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20201209063</v>
+      </c>
+      <c r="C8">
+        <v>160.2176175865996</v>
+      </c>
+      <c r="D8">
+        <v>0.08067987777175896</v>
+      </c>
+      <c r="E8">
+        <v>36.82344379992367</v>
+      </c>
+      <c r="F8">
+        <v>0.8276634857217821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>20201209064</v>
+      </c>
+      <c r="C9">
+        <v>159.9232372688059</v>
+      </c>
+      <c r="D9">
+        <v>0.0793632401463726</v>
+      </c>
+      <c r="E9">
+        <v>37.35252521284222</v>
+      </c>
+      <c r="F9">
+        <v>0.8666815264503328</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>HTS tape results</t>
   </si>
@@ -37,7 +37,10 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">SOX 717-C 1 </t>
+    <t xml:space="preserve">SOJ 803-N2 (2-322) 3,,,,, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOJ 803-N2 (2-322) 3 </t>
   </si>
 </sst>
 </file>
@@ -414,99 +417,99 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20201209059</v>
+        <v>20201210042</v>
       </c>
       <c r="C4">
-        <v>159.6991324768351</v>
+        <v>180.5427728687814</v>
       </c>
       <c r="D4">
-        <v>0.1049552903810511</v>
+        <v>0.06493447368939123</v>
       </c>
       <c r="E4">
-        <v>46.20157618021523</v>
+        <v>38.47173830242762</v>
       </c>
       <c r="F4">
-        <v>1.462899470367886</v>
+        <v>0.7596501519629969</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>20201209060</v>
+        <v>20201210043</v>
       </c>
       <c r="C5">
-        <v>159.6154088578845</v>
+        <v>180.1369443209765</v>
       </c>
       <c r="D5">
-        <v>0.08121870658997199</v>
+        <v>0.05103165301648328</v>
       </c>
       <c r="E5">
-        <v>37.48976383711215</v>
+        <v>38.04397286917502</v>
       </c>
       <c r="F5">
-        <v>0.8996805363756503</v>
+        <v>0.6423884147397909</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>20201209061</v>
+        <v>20201210045</v>
       </c>
       <c r="C6">
-        <v>158.960571292258</v>
+        <v>180.0172184319871</v>
       </c>
       <c r="D6">
-        <v>0.1339382949238062</v>
+        <v>0.0515281706184306</v>
       </c>
       <c r="E6">
-        <v>42.1683928693664</v>
+        <v>38.31522341584989</v>
       </c>
       <c r="F6">
-        <v>1.489555878658869</v>
+        <v>0.6711988811333577</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>20201209062</v>
+        <v>20201210055</v>
       </c>
       <c r="C7">
-        <v>160.0310128606721</v>
+        <v>178.0603918128035</v>
       </c>
       <c r="D7">
-        <v>0.1143225937587857</v>
+        <v>0.05821612475474323</v>
       </c>
       <c r="E7">
-        <v>32.34361313266743</v>
+        <v>32.34054040461744</v>
       </c>
       <c r="F7">
-        <v>0.802813239473873</v>
+        <v>0.5212372278915054</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>20201209063</v>
+        <v>20201210056</v>
       </c>
       <c r="C8">
-        <v>160.2176175865996</v>
+        <v>177.7254317404144</v>
       </c>
       <c r="D8">
-        <v>0.08067987777175896</v>
+        <v>0.05034451334953678</v>
       </c>
       <c r="E8">
-        <v>36.82344379992367</v>
+        <v>38.84520308990845</v>
       </c>
       <c r="F8">
-        <v>0.8276634857217821</v>
+        <v>0.6843883330943414</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -514,19 +517,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20201209064</v>
+        <v>20201210057</v>
       </c>
       <c r="C9">
-        <v>159.9232372688059</v>
+        <v>177.9056332511805</v>
       </c>
       <c r="D9">
-        <v>0.0793632401463726</v>
+        <v>0.04543551620043342</v>
       </c>
       <c r="E9">
-        <v>37.35252521284222</v>
+        <v>30.85645599536549</v>
       </c>
       <c r="F9">
-        <v>0.8666815264503328</v>
+        <v>0.4596106340641563</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>HTS tape results</t>
   </si>
@@ -37,10 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">SOJ 803-N2 (2-322) 3,,,,, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOJ 803-N2 (2-322) 3 </t>
+    <t xml:space="preserve">PbSn_4 </t>
   </si>
 </sst>
 </file>
@@ -381,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,119 +414,79 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20201210042</v>
+        <v>20210201033</v>
       </c>
       <c r="C4">
-        <v>180.5427728687814</v>
+        <v>174.4299760564086</v>
       </c>
       <c r="D4">
-        <v>0.06493447368939123</v>
+        <v>0.1882452399594</v>
       </c>
       <c r="E4">
-        <v>38.47173830242762</v>
+        <v>37.84554858073395</v>
       </c>
       <c r="F4">
-        <v>0.7596501519629969</v>
+        <v>1.536449016635741</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>20201210043</v>
+        <v>20210201034</v>
       </c>
       <c r="C5">
-        <v>180.1369443209765</v>
+        <v>175.1892256152058</v>
       </c>
       <c r="D5">
-        <v>0.05103165301648328</v>
+        <v>0.1801372379874642</v>
       </c>
       <c r="E5">
-        <v>38.04397286917502</v>
+        <v>38.64192677454894</v>
       </c>
       <c r="F5">
-        <v>0.6423884147397909</v>
+        <v>1.570378052295473</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>20201210045</v>
+        <v>20210201035</v>
       </c>
       <c r="C6">
-        <v>180.0172184319871</v>
+        <v>175.9431575233957</v>
       </c>
       <c r="D6">
-        <v>0.0515281706184306</v>
+        <v>0.1437538078527957</v>
       </c>
       <c r="E6">
-        <v>38.31522341584989</v>
+        <v>28.00193917968637</v>
       </c>
       <c r="F6">
-        <v>0.6711988811333577</v>
+        <v>0.767042540882385</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>20201210055</v>
+        <v>20210201036</v>
       </c>
       <c r="C7">
-        <v>178.0603918128035</v>
+        <v>175.3689156428129</v>
       </c>
       <c r="D7">
-        <v>0.05821612475474323</v>
+        <v>0.1907870818932693</v>
       </c>
       <c r="E7">
-        <v>32.34054040461744</v>
+        <v>37.06055058813531</v>
       </c>
       <c r="F7">
-        <v>0.5212372278915054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>20201210056</v>
-      </c>
-      <c r="C8">
-        <v>177.7254317404144</v>
-      </c>
-      <c r="D8">
-        <v>0.05034451334953678</v>
-      </c>
-      <c r="E8">
-        <v>38.84520308990845</v>
-      </c>
-      <c r="F8">
-        <v>0.6843883330943414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>20201210057</v>
-      </c>
-      <c r="C9">
-        <v>177.9056332511805</v>
-      </c>
-      <c r="D9">
-        <v>0.04543551620043342</v>
-      </c>
-      <c r="E9">
-        <v>30.85645599536549</v>
-      </c>
-      <c r="F9">
-        <v>0.4596106340641563</v>
+        <v>1.569102528353512</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>HTS tape results</t>
   </si>
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">PbSn_4 </t>
+    <t xml:space="preserve">DCC-PbSn-6 </t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210201033</v>
+        <v>20201223036</v>
       </c>
       <c r="C4">
-        <v>174.4299760564086</v>
+        <v>174.0123510006291</v>
       </c>
       <c r="D4">
-        <v>0.1882452399594</v>
+        <v>0.1912576498988353</v>
       </c>
       <c r="E4">
-        <v>37.84554858073395</v>
+        <v>40.11549269222721</v>
       </c>
       <c r="F4">
-        <v>1.536449016635741</v>
+        <v>1.740225884501156</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210201034</v>
+        <v>20201223037</v>
       </c>
       <c r="C5">
-        <v>175.1892256152058</v>
+        <v>174.0643590613071</v>
       </c>
       <c r="D5">
-        <v>0.1801372379874642</v>
+        <v>0.1271293033678232</v>
       </c>
       <c r="E5">
-        <v>38.64192677454894</v>
+        <v>31.62133872332173</v>
       </c>
       <c r="F5">
-        <v>1.570378052295473</v>
+        <v>0.9431070743705955</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210201035</v>
+        <v>20201223038</v>
       </c>
       <c r="C6">
-        <v>175.9431575233957</v>
+        <v>173.062495301477</v>
       </c>
       <c r="D6">
-        <v>0.1437538078527957</v>
+        <v>0.1881301990514373</v>
       </c>
       <c r="E6">
-        <v>28.00193917968637</v>
+        <v>41.52774806561667</v>
       </c>
       <c r="F6">
-        <v>0.767042540882385</v>
+        <v>1.830253211331108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,39 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210201036</v>
+        <v>20201223039</v>
       </c>
       <c r="C7">
-        <v>175.3689156428129</v>
+        <v>172.6774149249559</v>
       </c>
       <c r="D7">
-        <v>0.1907870818932693</v>
+        <v>0.1736717077773756</v>
       </c>
       <c r="E7">
-        <v>37.06055058813531</v>
+        <v>42.88894619891598</v>
       </c>
       <c r="F7">
-        <v>1.569102528353512</v>
+        <v>1.83998105067187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20201223040</v>
+      </c>
+      <c r="C8">
+        <v>173.7703401292746</v>
+      </c>
+      <c r="D8">
+        <v>0.2104292117799624</v>
+      </c>
+      <c r="E8">
+        <v>40.86891569498964</v>
+      </c>
+      <c r="F8">
+        <v>1.902990770717155</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">DCC-PbSn-6 </t>
+    <t xml:space="preserve">PnSn_036 </t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20201223036</v>
+        <v>20210222112</v>
       </c>
       <c r="C4">
-        <v>174.0123510006291</v>
+        <v>70.23562084641492</v>
       </c>
       <c r="D4">
-        <v>0.1912576498988353</v>
+        <v>0.2497439267849196</v>
       </c>
       <c r="E4">
-        <v>40.11549269222721</v>
+        <v>99.99999985107218</v>
       </c>
       <c r="F4">
-        <v>1.740225884501156</v>
+        <v>15.22313350551483</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20201223037</v>
+        <v>20210222113</v>
       </c>
       <c r="C5">
-        <v>174.0643590613071</v>
+        <v>70.42316673193326</v>
       </c>
       <c r="D5">
-        <v>0.1271293033678232</v>
+        <v>0.4790434628289511</v>
       </c>
       <c r="E5">
-        <v>31.62133872332173</v>
+        <v>99.99999992453542</v>
       </c>
       <c r="F5">
-        <v>0.9431070743705955</v>
+        <v>24.25442531953022</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20201223038</v>
+        <v>20210222114</v>
       </c>
       <c r="C6">
-        <v>173.062495301477</v>
+        <v>70.0288724474368</v>
       </c>
       <c r="D6">
-        <v>0.1881301990514373</v>
+        <v>0.2390576317179822</v>
       </c>
       <c r="E6">
-        <v>41.52774806561667</v>
+        <v>99.9999922959054</v>
       </c>
       <c r="F6">
-        <v>1.830253211331108</v>
+        <v>14.82767676052003</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20201223039</v>
+        <v>20210222115</v>
       </c>
       <c r="C7">
-        <v>172.6774149249559</v>
+        <v>70.83677841016046</v>
       </c>
       <c r="D7">
-        <v>0.1736717077773756</v>
+        <v>0.684170863668065</v>
       </c>
       <c r="E7">
-        <v>42.88894619891598</v>
+        <v>99.99999999961966</v>
       </c>
       <c r="F7">
-        <v>1.83998105067187</v>
+        <v>31.64779879779676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20201223040</v>
+        <v>20210222116</v>
       </c>
       <c r="C8">
-        <v>173.7703401292746</v>
+        <v>70.05415328125505</v>
       </c>
       <c r="D8">
-        <v>0.2104292117799624</v>
+        <v>0.4979806485282034</v>
       </c>
       <c r="E8">
-        <v>40.86891569498964</v>
+        <v>99.99999909872811</v>
       </c>
       <c r="F8">
-        <v>1.902990770717155</v>
+        <v>25.40271158597501</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">PnSn_036 </t>
+    <t xml:space="preserve">DCC-PbSn-08 </t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210222112</v>
+        <v>20210119065</v>
       </c>
       <c r="C4">
-        <v>70.23562084641492</v>
+        <v>181.1770409135563</v>
       </c>
       <c r="D4">
-        <v>0.2497439267849196</v>
+        <v>0.2144024725627932</v>
       </c>
       <c r="E4">
-        <v>99.99999985107218</v>
+        <v>37.02393282014269</v>
       </c>
       <c r="F4">
-        <v>15.22313350551483</v>
+        <v>1.552737138880795</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210222113</v>
+        <v>20210119066</v>
       </c>
       <c r="C5">
-        <v>70.42316673193326</v>
+        <v>180.3931094186052</v>
       </c>
       <c r="D5">
-        <v>0.4790434628289511</v>
+        <v>0.175896784703005</v>
       </c>
       <c r="E5">
-        <v>99.99999992453542</v>
+        <v>39.47274333556351</v>
       </c>
       <c r="F5">
-        <v>24.25442531953022</v>
+        <v>1.503467643700168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210222114</v>
+        <v>20210119067</v>
       </c>
       <c r="C6">
-        <v>70.0288724474368</v>
+        <v>181.0817726649225</v>
       </c>
       <c r="D6">
-        <v>0.2390576317179822</v>
+        <v>0.1239484259564888</v>
       </c>
       <c r="E6">
-        <v>99.9999922959054</v>
+        <v>31.54813900289204</v>
       </c>
       <c r="F6">
-        <v>14.82767676052003</v>
+        <v>0.8461651139585031</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210222115</v>
+        <v>20210119068</v>
       </c>
       <c r="C7">
-        <v>70.83677841016046</v>
+        <v>179.996799169907</v>
       </c>
       <c r="D7">
-        <v>0.684170863668065</v>
+        <v>0.1582385758477107</v>
       </c>
       <c r="E7">
-        <v>99.99999999961966</v>
+        <v>41.95564277603607</v>
       </c>
       <c r="F7">
-        <v>31.64779879779676</v>
+        <v>1.544149007758065</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20210222116</v>
+        <v>20210119069</v>
       </c>
       <c r="C8">
-        <v>70.05415328125505</v>
+        <v>181.117948838954</v>
       </c>
       <c r="D8">
-        <v>0.4979806485282034</v>
+        <v>0.1685123382551031</v>
       </c>
       <c r="E8">
-        <v>99.99999909872811</v>
+        <v>39.86865837929415</v>
       </c>
       <c r="F8">
-        <v>25.40271158597501</v>
+        <v>1.501628639022112</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>HTS tape results</t>
   </si>
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">GrPt_018 </t>
+    <t xml:space="preserve">SOX 853-L_001 </t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210226048</v>
+        <v>20210301069</v>
       </c>
       <c r="C4">
-        <v>178.9418124632855</v>
+        <v>152.9710758140307</v>
       </c>
       <c r="D4">
-        <v>74.91735572502482</v>
+        <v>0.2015801284836243</v>
       </c>
       <c r="E4">
-        <v>38.34354834634811</v>
+        <v>88.45820716705018</v>
       </c>
       <c r="F4">
-        <v>101.6145532569353</v>
+        <v>5.466153477333806</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210226049</v>
+        <v>20210301070</v>
       </c>
       <c r="C5">
-        <v>194.440481170574</v>
+        <v>156.6310160972328</v>
       </c>
       <c r="D5">
-        <v>3.750060006961816</v>
+        <v>0.1280709394076671</v>
       </c>
       <c r="E5">
-        <v>29.07361622076403</v>
+        <v>43.78470042949429</v>
       </c>
       <c r="F5">
-        <v>4.694034394326356</v>
+        <v>1.160069014087951</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210226050</v>
+        <v>20210301071</v>
       </c>
       <c r="C6">
-        <v>196.4729438142474</v>
+        <v>156.66718426949</v>
       </c>
       <c r="D6">
-        <v>0.4371137304701049</v>
+        <v>0.1687833150086451</v>
       </c>
       <c r="E6">
-        <v>26.3155393138484</v>
+        <v>43.82280566091513</v>
       </c>
       <c r="F6">
-        <v>0.809019464588096</v>
+        <v>1.365215562103476</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210226051</v>
+        <v>20210301072</v>
       </c>
       <c r="C7">
-        <v>196.883775996747</v>
+        <v>156.1939072703252</v>
       </c>
       <c r="D7">
-        <v>0.4804226894877094</v>
+        <v>0.1660516435285794</v>
       </c>
       <c r="E7">
-        <v>25.98020675494033</v>
+        <v>44.84797321999983</v>
       </c>
       <c r="F7">
-        <v>0.8350102750624656</v>
+        <v>1.402060558417145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,79 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20210226052</v>
+        <v>20210301073</v>
       </c>
       <c r="C8">
-        <v>196.6448626224127</v>
+        <v>153.6519285815644</v>
       </c>
       <c r="D8">
-        <v>0.6674848092746699</v>
+        <v>0.1028069839915806</v>
       </c>
       <c r="E8">
-        <v>26.10234510965855</v>
+        <v>99.47517171976368</v>
       </c>
       <c r="F8">
-        <v>1.066883298833841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>20210226053</v>
-      </c>
-      <c r="C9">
-        <v>195.7344033505449</v>
-      </c>
-      <c r="D9">
-        <v>0.4853181153528943</v>
-      </c>
-      <c r="E9">
-        <v>28.01171053335261</v>
-      </c>
-      <c r="F9">
-        <v>0.9826521267093473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>20210226054</v>
-      </c>
-      <c r="C10">
-        <v>195.6575404997639</v>
-      </c>
-      <c r="D10">
-        <v>0.4525787300389356</v>
-      </c>
-      <c r="E10">
-        <v>27.42220203495158</v>
-      </c>
-      <c r="F10">
-        <v>0.8962042146524867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>20210226055</v>
-      </c>
-      <c r="C11">
-        <v>194.5772436899588</v>
-      </c>
-      <c r="D11">
-        <v>0.4939316087952197</v>
-      </c>
-      <c r="E11">
-        <v>29.26192753902603</v>
-      </c>
-      <c r="F11">
-        <v>1.081542438876383</v>
+        <v>4.227098072965491</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">SOX 853-L_001 </t>
+    <t xml:space="preserve">751-N3_033 </t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210301069</v>
+        <v>20210414018</v>
       </c>
       <c r="C4">
-        <v>152.9710758140307</v>
+        <v>138.7270472617433</v>
       </c>
       <c r="D4">
-        <v>0.2015801284836243</v>
+        <v>0.1129248930442713</v>
       </c>
       <c r="E4">
-        <v>88.45820716705018</v>
+        <v>49.52196734079114</v>
       </c>
       <c r="F4">
-        <v>5.466153477333806</v>
+        <v>1.741179345915382</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210301070</v>
+        <v>20210414019</v>
       </c>
       <c r="C5">
-        <v>156.6310160972328</v>
+        <v>138.8268154023904</v>
       </c>
       <c r="D5">
-        <v>0.1280709394076671</v>
+        <v>0.1385775785206121</v>
       </c>
       <c r="E5">
-        <v>43.78470042949429</v>
+        <v>52.46782937220501</v>
       </c>
       <c r="F5">
-        <v>1.160069014087951</v>
+        <v>2.114594021806856</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210301071</v>
+        <v>20210414020</v>
       </c>
       <c r="C6">
-        <v>156.66718426949</v>
+        <v>139.2691034238872</v>
       </c>
       <c r="D6">
-        <v>0.1687833150086451</v>
+        <v>0.1538808228713741</v>
       </c>
       <c r="E6">
-        <v>43.82280566091513</v>
+        <v>48.68710150557076</v>
       </c>
       <c r="F6">
-        <v>1.365215562103476</v>
+        <v>2.044075782654143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210301072</v>
+        <v>20210414021</v>
       </c>
       <c r="C7">
-        <v>156.1939072703252</v>
+        <v>138.8897614764209</v>
       </c>
       <c r="D7">
-        <v>0.1660516435285794</v>
+        <v>0.08803673352025615</v>
       </c>
       <c r="E7">
-        <v>44.84797321999983</v>
+        <v>62.8443232389408</v>
       </c>
       <c r="F7">
-        <v>1.402060558417145</v>
+        <v>2.361531450796106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20210301073</v>
+        <v>20210414022</v>
       </c>
       <c r="C8">
-        <v>153.6519285815644</v>
+        <v>138.6872231207432</v>
       </c>
       <c r="D8">
-        <v>0.1028069839915806</v>
+        <v>0.1080050682624098</v>
       </c>
       <c r="E8">
-        <v>99.47517171976368</v>
+        <v>49.01994315802063</v>
       </c>
       <c r="F8">
-        <v>4.227098072965491</v>
+        <v>1.617445203944603</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">751-N3_033 </t>
+    <t xml:space="preserve">PT_05 </t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210414018</v>
+        <v>20210420160</v>
       </c>
       <c r="C4">
-        <v>138.7270472617433</v>
+        <v>71.22564355045012</v>
       </c>
       <c r="D4">
-        <v>0.1129248930442713</v>
+        <v>0.07311236901527229</v>
       </c>
       <c r="E4">
-        <v>49.52196734079114</v>
+        <v>23.4686190262931</v>
       </c>
       <c r="F4">
-        <v>1.741179345915382</v>
+        <v>1.078056688518211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210414019</v>
+        <v>20210420161</v>
       </c>
       <c r="C5">
-        <v>138.8268154023904</v>
+        <v>70.43979883267731</v>
       </c>
       <c r="D5">
-        <v>0.1385775785206121</v>
+        <v>0.04463872951237879</v>
       </c>
       <c r="E5">
-        <v>52.46782937220501</v>
+        <v>33.76766715672862</v>
       </c>
       <c r="F5">
-        <v>2.114594021806856</v>
+        <v>1.360099486143661</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210414020</v>
+        <v>20210420162</v>
       </c>
       <c r="C6">
-        <v>139.2691034238872</v>
+        <v>71.0728798805447</v>
       </c>
       <c r="D6">
-        <v>0.1538808228713741</v>
+        <v>0.07817703530374194</v>
       </c>
       <c r="E6">
-        <v>48.68710150557076</v>
+        <v>29.77731355323644</v>
       </c>
       <c r="F6">
-        <v>2.044075782654143</v>
+        <v>1.485013880982627</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210414021</v>
+        <v>20210420163</v>
       </c>
       <c r="C7">
-        <v>138.8897614764209</v>
+        <v>71.09910465806429</v>
       </c>
       <c r="D7">
-        <v>0.08803673352025615</v>
+        <v>0.08837790335409347</v>
       </c>
       <c r="E7">
-        <v>62.8443232389408</v>
+        <v>28.33461013951955</v>
       </c>
       <c r="F7">
-        <v>2.361531450796106</v>
+        <v>1.470352957838639</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20210414022</v>
+        <v>20210420164</v>
       </c>
       <c r="C8">
-        <v>138.6872231207432</v>
+        <v>70.87282371224239</v>
       </c>
       <c r="D8">
-        <v>0.1080050682624098</v>
+        <v>0.08927765667445317</v>
       </c>
       <c r="E8">
-        <v>49.01994315802063</v>
+        <v>29.34151532396858</v>
       </c>
       <c r="F8">
-        <v>1.617445203944603</v>
+        <v>1.535626328247534</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">PT_05 </t>
+    <t xml:space="preserve">Ni-SC_006 </t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210420160</v>
+        <v>20210413036</v>
       </c>
       <c r="C4">
-        <v>71.22564355045012</v>
+        <v>146.1341630736045</v>
       </c>
       <c r="D4">
-        <v>0.07311236901527229</v>
+        <v>0.09381658585255344</v>
       </c>
       <c r="E4">
-        <v>23.4686190262931</v>
+        <v>54.31813683214327</v>
       </c>
       <c r="F4">
-        <v>1.078056688518211</v>
+        <v>1.895251555467838</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210420161</v>
+        <v>20210413037</v>
       </c>
       <c r="C5">
-        <v>70.43979883267731</v>
+        <v>147.4052560684596</v>
       </c>
       <c r="D5">
-        <v>0.04463872951237879</v>
+        <v>0.1277112098244808</v>
       </c>
       <c r="E5">
-        <v>33.76766715672862</v>
+        <v>36.99996254979254</v>
       </c>
       <c r="F5">
-        <v>1.360099486143661</v>
+        <v>1.149540314040014</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210420162</v>
+        <v>20210413038</v>
       </c>
       <c r="C6">
-        <v>71.0728798805447</v>
+        <v>146.4557536361728</v>
       </c>
       <c r="D6">
-        <v>0.07817703530374194</v>
+        <v>0.1040328967379822</v>
       </c>
       <c r="E6">
-        <v>29.77731355323644</v>
+        <v>49.53952035827702</v>
       </c>
       <c r="F6">
-        <v>1.485013880982627</v>
+        <v>1.706474817700595</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210420163</v>
+        <v>20210413039</v>
       </c>
       <c r="C7">
-        <v>71.09910465806429</v>
+        <v>147.4418258011588</v>
       </c>
       <c r="D7">
-        <v>0.08837790335409347</v>
+        <v>0.1329366684171313</v>
       </c>
       <c r="E7">
-        <v>28.33461013951955</v>
+        <v>31.38084762073596</v>
       </c>
       <c r="F7">
-        <v>1.470352957838639</v>
+        <v>0.9298023694974374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20210420164</v>
+        <v>20210413040</v>
       </c>
       <c r="C8">
-        <v>70.87282371224239</v>
+        <v>146.2745613124613</v>
       </c>
       <c r="D8">
-        <v>0.08927765667445317</v>
+        <v>0.1021876258147032</v>
       </c>
       <c r="E8">
-        <v>29.34151532396858</v>
+        <v>42.63315921145767</v>
       </c>
       <c r="F8">
-        <v>1.535626328247534</v>
+        <v>1.342589050666721</v>
       </c>
     </row>
   </sheetData>

--- a/tape_test_xlsx.xlsx
+++ b/tape_test_xlsx.xlsx
@@ -37,7 +37,7 @@
     <t>n error [+/-]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ni-SC_006 </t>
+    <t xml:space="preserve">AW_PbSn_004 </t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20210413036</v>
+        <v>20200623051</v>
       </c>
       <c r="C4">
-        <v>146.1341630736045</v>
+        <v>173.113166810031</v>
       </c>
       <c r="D4">
-        <v>0.09381658585255344</v>
+        <v>0.02146414851682954</v>
       </c>
       <c r="E4">
-        <v>54.31813683214327</v>
+        <v>39.81999673559389</v>
       </c>
       <c r="F4">
-        <v>1.895251555467838</v>
+        <v>0.258004485033749</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -434,19 +434,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20210413037</v>
+        <v>20200623052</v>
       </c>
       <c r="C5">
-        <v>147.4052560684596</v>
+        <v>172.4663833716833</v>
       </c>
       <c r="D5">
-        <v>0.1277112098244808</v>
+        <v>0.01934226675958082</v>
       </c>
       <c r="E5">
-        <v>36.99996254979254</v>
+        <v>34.94456238135702</v>
       </c>
       <c r="F5">
-        <v>1.149540314040014</v>
+        <v>0.1778441666444563</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -454,19 +454,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20210413038</v>
+        <v>20200623053</v>
       </c>
       <c r="C6">
-        <v>146.4557536361728</v>
+        <v>172.8331799551417</v>
       </c>
       <c r="D6">
-        <v>0.1040328967379822</v>
+        <v>0.01777873699050023</v>
       </c>
       <c r="E6">
-        <v>49.53952035827702</v>
+        <v>38.99861603885294</v>
       </c>
       <c r="F6">
-        <v>1.706474817700595</v>
+        <v>0.2035475844426976</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,19 +474,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20210413039</v>
+        <v>20200623054</v>
       </c>
       <c r="C7">
-        <v>147.4418258011588</v>
+        <v>172.5427937641962</v>
       </c>
       <c r="D7">
-        <v>0.1329366684171313</v>
+        <v>0.01859989168010714</v>
       </c>
       <c r="E7">
-        <v>31.38084762073596</v>
+        <v>36.80622919386587</v>
       </c>
       <c r="F7">
-        <v>0.9298023694974374</v>
+        <v>0.1842439819756671</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20210413040</v>
+        <v>20200623055</v>
       </c>
       <c r="C8">
-        <v>146.2745613124613</v>
+        <v>172.5005969247268</v>
       </c>
       <c r="D8">
-        <v>0.1021876258147032</v>
+        <v>0.01857374854478379</v>
       </c>
       <c r="E8">
-        <v>42.63315921145767</v>
+        <v>36.02607818579072</v>
       </c>
       <c r="F8">
-        <v>1.342589050666721</v>
+        <v>0.1691595980569785</v>
       </c>
     </row>
   </sheetData>
